--- a/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRW_inside-outside_park_update_2.xlsx
+++ b/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRW_inside-outside_park_update_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DATA_ANALYSIS\PARKS_AUSTRALIA\AMP_Data\TWO_ROCKS_WEST\Vessel Propagation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic.NMFS\Documents\GitHub\AMP_ves_summary\data_inputs\Inside_Park_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="9576" windowHeight="4032"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="9576" windowHeight="4032"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1759,11 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,7 +1846,7 @@
         <v>95.125000754652106</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>81</v>
@@ -1880,7 +1879,7 @@
         <v>0.25709779179810699</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>0.107536764705882</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>0.454794520547945</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>0.132260947274352</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>0.112431444241316</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>8.8262910798122096E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>0.10175763182238701</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>0.110805860805861</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>9.4216417910447797E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>8.22306238185255E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>0.35031847133757998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>0.310606060606061</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>6.1835748792270502E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>0.127583108715184</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>0.107536764705882</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>0.234532374100719</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>0.103416435826408</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>0.13070725156669699</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>0.19852034525277401</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>0.103416435826408</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>0.97093023255813904</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>0.25709779179810699</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>0.224827586206897</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0.21981004070556301</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>0.17817371937639201</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>0.15805168986083501</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>0.140681003584229</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>7.9620853080568696E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>0.20636942675159201</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>0.227653631284916</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>0.13535173642030299</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>0.2109375</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>0.51076923076923098</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>0.13612099644128101</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>110</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>9.4216417910447797E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>0.127583108715184</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>9.4216417910447797E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>0.110805860805861</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>0.132260947274352</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>7.4356530028598697E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>0.16224489795918401</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>0.212877792378449</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>0.54785478547854805</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>0.23285714285714301</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>7.9620853080568696E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>140</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>7.6996197718631199E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>0.28275862068965502</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>0.125225225225225</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>0.114051094890511</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>0.112431444241316</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>6.1835748792270502E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>0.125225225225225</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>0.42239185750636099</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>0.15995975855130801</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -8346,7 +8345,7 @@
         <v>0.132260947274352</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>0.12206148282097599</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>162</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>0.123646209386282</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>163</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>164</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>0.192353643966547</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>0.13458110516933999</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>0.28227194492254698</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>0.12836624775583499</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>175</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>0.44148936170212799</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>0.12836624775583499</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>0.16913319238900601</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>0.13458110516933999</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>0.22131147540983601</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>0.31001890359168199</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>195</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>0.117272727272727</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>196</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>197</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>198</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>0.47701149425287398</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>0.16719242902208201</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>204</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>0.133809099018733</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>205</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>0.133809099018733</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>207</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>0.1544477028348</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>0.107536764705882</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>210</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>0.13070725156669699</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>211</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>0.157894736842105</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -11105,7 +11104,7 @@
         <v>0.12836624775583499</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>214</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>215</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>0.115664845173042</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>9.6744186046511596E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>217</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>7.6117982873453893E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>0.12679856115107899</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>219</v>
       </c>
@@ -11423,7 +11422,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>0.105069124423963</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>221</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>0.17897091722595099</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>223</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>0.13148479427549201</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>224</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>226</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>0.12047101449275401</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>227</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>229</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>232</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>233</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>0.24292101341281699</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>235</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>0.19467956469165701</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>243</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>245</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>0.13458110516933999</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>247</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>0.31119544592030401</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>254</v>
       </c>
@@ -12801,7 +12800,7 @@
         <v>0.13148479427549201</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>256</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>0.136888888888889</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>258</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>262</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>0.27516778523489899</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -13225,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>269</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>0.119673617407072</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>270</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>273</v>
       </c>
@@ -13543,7 +13542,7 @@
         <v>0.18018018018018001</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>275</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>0.204287515762926</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>277</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>0.34663865546218497</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>280</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>0.13535173642030299</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>281</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>0.15250965250965301</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>284</v>
       </c>
@@ -14020,7 +14019,7 @@
         <v>7.5238095238095201E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>285</v>
       </c>
@@ -14179,7 +14178,7 @@
         <v>0.73568281938325997</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>288</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>0.26797385620914999</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>296</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>0.127583108715184</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -14603,7 +14602,7 @@
         <v>0.106715731370745</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -14656,7 +14655,7 @@
         <v>0.13535173642030299</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>299</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>0.176017601760176</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -14921,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>305</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>0.17817371937639201</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>315</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>0.122854561878952</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>316</v>
       </c>
@@ -15451,7 +15450,7 @@
         <v>0.83084577114427904</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>318</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>0.13612099644128101</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>319</v>
       </c>
@@ -15663,7 +15662,7 @@
         <v>0.16224489795918401</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>322</v>
       </c>
@@ -15769,7 +15768,7 @@
         <v>0.63846153846153797</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>324</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>0.14233907524931999</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>326</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>0.117272727272727</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>327</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>0.118874773139746</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>333</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>0.106715731370745</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>334</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>0.116469517743403</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>335</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>0.61481481481481504</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>339</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>342</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>343</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>0.59074733096085397</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>345</v>
       </c>
@@ -17041,7 +17040,7 @@
         <v>0.182746878547106</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>348</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>9.9257884972170696E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>349</v>
       </c>
@@ -17147,7 +17146,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>350</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>0.118074477747502</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>351</v>
       </c>
@@ -17306,7 +17305,7 @@
         <v>0.158366533864542</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>353</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>0.193045563549161</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>355</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>0.123646209386282</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>356</v>
       </c>
@@ -17518,7 +17517,7 @@
         <v>8.8262910798122096E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>357</v>
       </c>
@@ -17677,7 +17676,7 @@
         <v>0.23285714285714301</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>360</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>0.26198083067092698</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>362</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>9.8421541318477204E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>363</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>0.12601260126012601</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>364</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>0.14631873252562899</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>366</v>
       </c>
@@ -18048,7 +18047,7 @@
         <v>0.13612099644128101</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>367</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>8.7406015037594001E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>368</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>0.218034993270525</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>373</v>
       </c>
@@ -18525,7 +18524,7 @@
         <v>0.52365930599369104</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>376</v>
       </c>
@@ -18578,7 +18577,7 @@
         <v>0.13303571428571401</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>377</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>0.35483870967741898</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>381</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>0.19658119658119699</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>385</v>
       </c>
@@ -19108,7 +19107,7 @@
         <v>0.408415841584158</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>387</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>0.27655986509274899</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>389</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>391</v>
       </c>
@@ -19373,7 +19372,7 @@
         <v>0.122854561878952</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>392</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>8.9971883786316806E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>393</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>394</v>
       </c>
@@ -19532,7 +19531,7 @@
         <v>0.13303571428571401</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>395</v>
       </c>
@@ -19638,7 +19637,7 @@
         <v>0.16012084592145001</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>397</v>
       </c>
@@ -19691,7 +19690,7 @@
         <v>0.12601260126012601</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>398</v>
       </c>
@@ -19850,7 +19849,7 @@
         <v>0.31853281853281901</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>401</v>
       </c>
@@ -19956,7 +19955,7 @@
         <v>0.16076845298281101</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>403</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>9.1674462114125305E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>404</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>0.55333333333333301</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>406</v>
       </c>
@@ -20221,7 +20220,7 @@
         <v>0.169312169312169</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>408</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>0.136888888888889</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -20327,7 +20326,7 @@
         <v>0.13612099644128101</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>410</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>0.20351758793969801</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>412</v>
       </c>
@@ -20486,7 +20485,7 @@
         <v>0.13612099644128101</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>413</v>
       </c>
@@ -20592,7 +20591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>415</v>
       </c>
@@ -20698,7 +20697,7 @@
         <v>0.72608695652173905</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>417</v>
       </c>
@@ -21069,7 +21068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>424</v>
       </c>
@@ -21122,7 +21121,7 @@
         <v>0.11485870556062</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>425</v>
       </c>
@@ -21175,7 +21174,7 @@
         <v>0.13148479427549201</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>426</v>
       </c>
@@ -21387,7 +21386,7 @@
         <v>0.14849624060150399</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>430</v>
       </c>
@@ -21440,7 +21439,7 @@
         <v>9.5060577819198494E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>431</v>
       </c>
@@ -21705,7 +21704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>436</v>
       </c>
@@ -21970,7 +21969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>441</v>
       </c>
@@ -22023,7 +22022,7 @@
         <v>0.129928315412186</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>442</v>
       </c>
@@ -22076,7 +22075,7 @@
         <v>0.12206148282097599</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>443</v>
       </c>
@@ -22129,7 +22128,7 @@
         <v>0.13765541740675</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>444</v>
       </c>
@@ -22182,7 +22181,7 @@
         <v>0.117272727272727</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>445</v>
       </c>
@@ -22288,7 +22287,7 @@
         <v>0.310606060606061</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>447</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>0.119673617407072</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>448</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>0.18378995433789999</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>450</v>
       </c>
@@ -22500,7 +22499,7 @@
         <v>0.10175763182238701</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>451</v>
       </c>
@@ -22553,7 +22552,7 @@
         <v>7.9620853080568696E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>452</v>
       </c>
@@ -22606,7 +22605,7 @@
         <v>0.13458110516933999</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>453</v>
       </c>
@@ -22659,7 +22658,7 @@
         <v>0.12914798206278</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>454</v>
       </c>
@@ -22712,7 +22711,7 @@
         <v>0.132260947274352</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>455</v>
       </c>
@@ -22765,7 +22764,7 @@
         <v>0.13070725156669699</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>456</v>
       </c>
@@ -22871,7 +22870,7 @@
         <v>0.13842058562555501</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>458</v>
       </c>
@@ -22924,7 +22923,7 @@
         <v>0.105893186003683</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>459</v>
       </c>
@@ -23030,7 +23029,7 @@
         <v>0.202247191011236</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>461</v>
       </c>
@@ -23083,7 +23082,7 @@
         <v>0.127583108715184</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>462</v>
       </c>
@@ -23136,7 +23135,7 @@
         <v>0.12126696832579199</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>463</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>0.13070725156669699</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>464</v>
       </c>
@@ -23295,7 +23294,7 @@
         <v>0.15581854043392501</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>466</v>
       </c>
@@ -23348,7 +23347,7 @@
         <v>0.117272727272727</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>467</v>
       </c>
@@ -23402,13 +23401,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R408">
-    <filterColumn colId="14">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.75"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
